--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_34.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1671826625386997</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(53.551034, 58.903233)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(21.577709, 29.878843)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:46.220000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3078947368421052</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C#:min', 'B', 'E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1194879089615932</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'G', 'C', 'F', 'C', 'F']]</t>
+          <t>[['E:min', 'A', 'C'], ['G', 'D', 'E:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(29.238402, 41.11276)]</t>
+          <t>[['B:min', 'E', 'G'], ['D', 'A', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.780606, 19.597664)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:52.620320', '0:00:56.381952'), ('0:00:10.452882', '0:00:21.586850')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:06.101566', '0:01:14.843879'), ('0:01:00.888687', '0:01:09.665829')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_192</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09304511278195488</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['G', 'B', 'E:min'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(96.2, 113.76)]</t>
+          <t>[['C', 'E', 'A:min'], ['F', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[('0:01:11.072653', '0:01:14.544036'), ('0:00:06.126439', '0:00:09.980952')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:09.817165', '0:01:14.008366'), ('0:01:15.355124', '0:01:20.742154')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3540229885057471</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1426282051282051</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(38.841, 47.891)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(29.22, 63.28)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:12.520000', '0:01:30.980000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_199</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09027777777777778</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['C/5', 'D/3', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(24.42, 32.62), (45.72, 49.9)]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(24.64, 33.0), (13.48, 20.96)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:33.466326', '0:00:38.923015')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:02.088054', '0:00:05.756807')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09980620155038759</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(20.78, 27.52)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(14.42, 45.54)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1108870967741935</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Db', 'Db:7', 'Gb']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(24.642743, 31.49263)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(64.871315, 72.777709)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(47.68, 51.98)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(80.22, 87.22)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.26, 19.34)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(85.58, 94.24)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.9, 45.16)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(148.857891, 153.176802)]</t>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1517747858017136</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(51.85331, 58.331678)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.446, 18.235)]</t>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.14, 27.92)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:03.460000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:03.880000', '0:01:14.940000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(14.44, 41.8)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:21.620000', '0:00:25.320000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:00.120000', '0:01:03.420000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2229102167182662</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(48.073287, 57.976598)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(82.290863, 91.834264)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2875</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(29.719863, 35.722222)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(56.88, 64.44)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(21.44, 25.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(226.02, 241.06)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
